--- a/results/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
+++ b/results/cm_CNN_2layers_adaptive_maxpool_3_PCC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="K-Fold Results" sheetId="1" state="visible" r:id="rId1"/>
@@ -443,13 +443,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1744,6 +1744,430 @@
         <v>0.8150508202627316</v>
       </c>
     </row>
+    <row r="70">
+      <c r="B70">
+        <f>AVERAGE(B48:B69)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>sub1</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>74.00401966765962</v>
+      </c>
+      <c r="C71" t="n">
+        <v>5.619971464493899</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.7400401966765962</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.7200870881935321</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>sub2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>77.63866058931198</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.421397304969529</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7763866058931199</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.762134464937178</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>sub3</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>71.90424577396547</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9090910336623589</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.7190424577396547</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7369429813552468</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>sub4</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>87.87556975200087</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6230153869020912</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8787556975200086</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8625791746383481</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>sub5</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>69.26676955101748</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.753928460608137</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6926676955101747</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6445812731038891</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>sub6</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>72.3364677170441</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9130714185535908</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.7233646771704411</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7303617682416095</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>sub7</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>78.12080536912751</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.673359028475049</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.7812080536912752</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.7724245131016725</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>sub8</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>79.59774611491943</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9696673546141634</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.7959774611491943</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8017904933265656</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>sub9</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>82.68456375838926</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9437353039470813</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.8268456375838926</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8273839835671521</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>sub10</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>79.89315579801169</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.7844903018791228</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.7989315579801171</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.807653973721726</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>sub11</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>77.3708502314898</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.168152371273997</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.773708502314898</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.7818635182133816</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>sub12</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>80.67114093959731</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.028290674249001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8067114093959731</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7957731138210997</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>sub13</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>65.41589204321143</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.343596139581253</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.6541589204321143</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6455440390564116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>sub14</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>78.84574525356207</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9163955168177683</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7884574525356207</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7921352872396876</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>sub15</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>80.9669813013674</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.291675502576981</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.809669813013674</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8009667185708136</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>sub16</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>81.58389261744966</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9123529224966964</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.8158389261744967</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.8098827628581</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>sub17</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>78.60434985464595</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8342249264319739</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7860434985464595</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.77851639367545</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sub18</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>78.66256325593081</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.236592199279645</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7866256325593081</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.7716587242660038</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sub19</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>80.26845637583892</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.060211350241055</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.8026845637583893</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7852016648968337</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>sub20</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>54.51017478376341</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.269397366791964</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.5451017478376341</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4944447887073727</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sub21</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>90.3364318271543</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.482090199412778</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.903364318271543</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8939267593528883</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sub22</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>79.62480709184223</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.105583186278106</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7962480709184223</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7920419181480602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
